--- a/Outputs/R60_d18O_stack/python/single record spreadsheets/ODP1264.xlsx
+++ b/Outputs/R60_d18O_stack/python/single record spreadsheets/ODP1264.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhou/Documents/GitHub/BIGMACS_MacOS/Outputs/R60_d18O_stack/python/single record spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B4B18-8F83-FD4A-9073-195564503E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C697FBC-B2EB-F04A-8F6C-A067C6EA4CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3511,8 +3511,8 @@
         <c:axId val="1065221152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1950"/>
-          <c:min val="1750"/>
+          <c:max val="2000"/>
+          <c:min val="1800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -4571,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D549"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303:XFD303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
